--- a/src/test/java/DemoQASite/TestData.xlsx
+++ b/src/test/java/DemoQASite/TestData.xlsx
@@ -8,23 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Java\jdk1.8.0_351\bin\DemoQA\src\test\java\DemoQASite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D8C92-7C38-4F23-99B4-C538799ED35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCAC70-E0C7-43DA-9399-66BE52E12518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" firstSheet="4" activeTab="11" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="ToolsQA" sheetId="3" r:id="rId2"/>
     <sheet name="Elements" sheetId="2" r:id="rId3"/>
-    <sheet name="TextBox" sheetId="4" r:id="rId4"/>
-    <sheet name="CheckBox" sheetId="5" r:id="rId5"/>
-    <sheet name="RadioButton" sheetId="6" r:id="rId6"/>
-    <sheet name="WebTables" sheetId="7" r:id="rId7"/>
-    <sheet name="Buttons" sheetId="8" r:id="rId8"/>
-    <sheet name="Links" sheetId="9" r:id="rId9"/>
-    <sheet name="BrokenImage" sheetId="10" r:id="rId10"/>
-    <sheet name="Upload" sheetId="11" r:id="rId11"/>
-    <sheet name="Dynamic" sheetId="12" r:id="rId12"/>
+    <sheet name="BookStore" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,15 +75,9 @@
     <t>https://demoqa.com/radio-button</t>
   </si>
   <si>
-    <t>Web Tables Page</t>
-  </si>
-  <si>
     <t>https://demoqa.com/webtables</t>
   </si>
   <si>
-    <t>Buttons Page</t>
-  </si>
-  <si>
     <t>https://demoqa.com/buttons</t>
   </si>
   <si>
@@ -101,46 +87,44 @@
     <t>https://demoqa.com/links</t>
   </si>
   <si>
-    <t>Broken Image Page</t>
-  </si>
-  <si>
     <t>https://demoqa.com/broken</t>
   </si>
   <si>
-    <t>Broken Link Page</t>
-  </si>
-  <si>
     <t>http://the-internet.herokuapp.com/status_codes/500</t>
   </si>
   <si>
     <t>https://demoqa.com/upload-download</t>
   </si>
   <si>
-    <t>Upload Page</t>
-  </si>
-  <si>
-    <t>Dynamic Page</t>
-  </si>
-  <si>
     <t>https://demoqa.com/dynamic-properties</t>
+  </si>
+  <si>
+    <t>WebTables Page</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Upload and Download Page</t>
+  </si>
+  <si>
+    <t>Dynamic Property Page</t>
+  </si>
+  <si>
+    <t>Broken Image and Links Page</t>
+  </si>
+  <si>
+    <t>BookStore Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,16 +147,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC59978-3FCB-4F1E-B117-171EBFE0BC9D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,97 +485,6 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1338AB-7BD2-493A-AE6F-801484EC30FD}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB715205-5996-4731-991A-D6C5EC16A61F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADFC74B-818A-4B07-AFF5-B4D6DCB87513}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -632,200 +522,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26A2EC-A5CA-442A-B7FD-BDE46920D79B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="49.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893125B-BA09-449B-AFCB-060097FC6CFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200F98BA-C624-4F33-8DEC-05FCFB7CFEF6}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229A7545-3D3B-4BA5-8252-D6EB724D80C6}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CDF34A-81C5-4DBA-BA8C-7575A5EC2809}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B2DBC6-B7A9-4AAD-9BF8-4D04AA690AAE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B47C96-9DFE-47DB-B149-746B8004C4EE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AB3DFC-1D66-4D65-AB8E-C3240943C851}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/DemoQASite/TestData.xlsx
+++ b/src/test/java/DemoQASite/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Java\jdk1.8.0_351\bin\DemoQA\src\test\java\DemoQASite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BCAC70-E0C7-43DA-9399-66BE52E12518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC5DCF-5F21-41D5-B8DC-692F56C62266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="3" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="ToolsQA" sheetId="3" r:id="rId2"/>
     <sheet name="Elements" sheetId="2" r:id="rId3"/>
-    <sheet name="BookStore" sheetId="13" r:id="rId4"/>
+    <sheet name="Login" sheetId="14" r:id="rId4"/>
+    <sheet name="BookStore" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Home Page</t>
   </si>
@@ -115,16 +116,96 @@
   </si>
   <si>
     <t>BookStore Page</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/books</t>
+  </si>
+  <si>
+    <t>Valid Username</t>
+  </si>
+  <si>
+    <t>Valid Password</t>
+  </si>
+  <si>
+    <t>Invalid Username</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>suitor22</t>
+  </si>
+  <si>
+    <t>Bootcamp22@</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/login</t>
+  </si>
+  <si>
+    <t>Profile Page</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/profile</t>
+  </si>
+  <si>
+    <t>Register Page</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/register</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>suitor</t>
+  </si>
+  <si>
+    <t>22suitor</t>
+  </si>
+  <si>
+    <t>suitor_22</t>
+  </si>
+  <si>
+    <t>suitor 22</t>
+  </si>
+  <si>
+    <t>Bootcamp</t>
+  </si>
+  <si>
+    <t>22Bootcamp@</t>
+  </si>
+  <si>
+    <t>_Bootcamp22@</t>
+  </si>
+  <si>
+    <t>SUITOR2</t>
+  </si>
+  <si>
+    <t>BOOTCAMP2@</t>
+  </si>
+  <si>
+    <t>Bootcamp 22 @</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,13 +228,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC59978-3FCB-4F1E-B117-171EBFE0BC9D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -525,7 +609,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,21 +701,164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893125B-BA09-449B-AFCB-060097FC6CFC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4585319B-FE5C-45A8-95A1-71C7E73FBB45}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DA504F08-2512-4F83-8B6C-779239DA5396}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{208AE921-18C3-4E6A-A030-7FE5D0B99A0A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{84D3C016-7CDA-45F0-9675-8A1946C0BD81}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{C63C188F-7208-4634-9334-E14398C1C962}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893125B-BA09-449B-AFCB-060097FC6CFC}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/DemoQASite/TestData.xlsx
+++ b/src/test/java/DemoQASite/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Java\jdk1.8.0_351\bin\DemoQA\src\test\java\DemoQASite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC5DCF-5F21-41D5-B8DC-692F56C62266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2400901-B78C-429B-9AC9-AED2C9C4A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="3" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
   </bookViews>
@@ -181,13 +181,13 @@
     <t>_Bootcamp22@</t>
   </si>
   <si>
-    <t>SUITOR2</t>
-  </si>
-  <si>
-    <t>BOOTCAMP2@</t>
-  </si>
-  <si>
     <t>Bootcamp 22 @</t>
+  </si>
+  <si>
+    <t>SUITOR22</t>
+  </si>
+  <si>
+    <t>BOOTCAMP22@</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +746,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/DemoQASite/TestData.xlsx
+++ b/src/test/java/DemoQASite/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Java\jdk1.8.0_351\bin\DemoQA\src\test\java\DemoQASite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2400901-B78C-429B-9AC9-AED2C9C4A698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5C25B-6D6D-4467-A4BF-858417D41906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="3" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="2" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Home Page</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>BOOTCAMP22@</t>
+  </si>
+  <si>
+    <t>BookStore API</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/swagger/</t>
   </si>
 </sst>
 </file>
@@ -608,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26A2EC-A5CA-442A-B7FD-BDE46920D79B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4585319B-FE5C-45A8-95A1-71C7E73FBB45}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +795,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B893125B-BA09-449B-AFCB-060097FC6CFC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +867,16 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/DemoQASite/TestData.xlsx
+++ b/src/test/java/DemoQASite/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Java\jdk1.8.0_351\bin\DemoQA\src\test\java\DemoQASite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\DemoQA\src\test\java\DemoQASite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5C25B-6D6D-4467-A4BF-858417D41906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C53352-438D-46DF-B236-6ACF81610C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="2" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{37C452DD-DAA6-44EB-A28C-CA45EAF025A9}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -184,16 +184,16 @@
     <t>Bootcamp 22 @</t>
   </si>
   <si>
-    <t>SUITOR22</t>
-  </si>
-  <si>
-    <t>BOOTCAMP22@</t>
-  </si>
-  <si>
     <t>BookStore API</t>
   </si>
   <si>
     <t>https://demoqa.com/swagger/</t>
+  </si>
+  <si>
+    <t>SUIIROR22</t>
+  </si>
+  <si>
+    <t>BOOTCAM22@</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26A2EC-A5CA-442A-B7FD-BDE46920D79B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4585319B-FE5C-45A8-95A1-71C7E73FBB45}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +752,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,12 +869,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
